--- a/Codes/ML_models/Models/All_Results/RF_Results/Sliding_Window_Model/Lambda_Abstain_Results_Metrics.xlsx
+++ b/Codes/ML_models/Models/All_Results/RF_Results/Sliding_Window_Model/Lambda_Abstain_Results_Metrics.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>Lambda Threshold</t>
   </si>
@@ -34,121 +34,112 @@
     <t>Specificity</t>
   </si>
   <si>
+    <t>91.27%</t>
+  </si>
+  <si>
     <t>92.43%</t>
   </si>
   <si>
-    <t>92.90%</t>
-  </si>
-  <si>
-    <t>93.58%</t>
-  </si>
-  <si>
-    <t>94.56%</t>
-  </si>
-  <si>
-    <t>95.99%</t>
-  </si>
-  <si>
-    <t>97.02%</t>
-  </si>
-  <si>
-    <t>98.14%</t>
-  </si>
-  <si>
-    <t>98.68%</t>
-  </si>
-  <si>
-    <t>99.45%</t>
-  </si>
-  <si>
-    <t>85.00%</t>
-  </si>
-  <si>
-    <t>89.47%</t>
-  </si>
-  <si>
-    <t>91.07%</t>
-  </si>
-  <si>
-    <t>92.73%</t>
-  </si>
-  <si>
-    <t>94.44%</t>
-  </si>
-  <si>
-    <t>96.23%</t>
-  </si>
-  <si>
-    <t>98.08%</t>
-  </si>
-  <si>
-    <t>34.93%</t>
-  </si>
-  <si>
-    <t>35.92%</t>
-  </si>
-  <si>
-    <t>38.35%</t>
-  </si>
-  <si>
-    <t>42.86%</t>
-  </si>
-  <si>
-    <t>51.00%</t>
-  </si>
-  <si>
-    <t>58.62%</t>
-  </si>
-  <si>
-    <t>69.86%</t>
-  </si>
-  <si>
-    <t>77.27%</t>
-  </si>
-  <si>
-    <t>49.51%</t>
-  </si>
-  <si>
-    <t>51.26%</t>
-  </si>
-  <si>
-    <t>53.97%</t>
-  </si>
-  <si>
-    <t>58.29%</t>
-  </si>
-  <si>
-    <t>65.81%</t>
-  </si>
-  <si>
-    <t>72.34%</t>
-  </si>
-  <si>
-    <t>80.95%</t>
-  </si>
-  <si>
-    <t>85.71%</t>
-  </si>
-  <si>
-    <t>99.27%</t>
-  </si>
-  <si>
-    <t>99.51%</t>
-  </si>
-  <si>
-    <t>99.59%</t>
-  </si>
-  <si>
-    <t>99.67%</t>
-  </si>
-  <si>
-    <t>99.75%</t>
+    <t>93.08%</t>
+  </si>
+  <si>
+    <t>93.87%</t>
+  </si>
+  <si>
+    <t>94.55%</t>
+  </si>
+  <si>
+    <t>96.63%</t>
+  </si>
+  <si>
+    <t>97.49%</t>
+  </si>
+  <si>
+    <t>98.21%</t>
+  </si>
+  <si>
+    <t>98.65%</t>
+  </si>
+  <si>
+    <t>61.54%</t>
+  </si>
+  <si>
+    <t>72.73%</t>
+  </si>
+  <si>
+    <t>80.00%</t>
+  </si>
+  <si>
+    <t>88.89%</t>
+  </si>
+  <si>
+    <t>94.12%</t>
+  </si>
+  <si>
+    <t>23.19%</t>
+  </si>
+  <si>
+    <t>25.00%</t>
+  </si>
+  <si>
+    <t>26.23%</t>
+  </si>
+  <si>
+    <t>28.07%</t>
+  </si>
+  <si>
+    <t>30.19%</t>
+  </si>
+  <si>
+    <t>42.11%</t>
+  </si>
+  <si>
+    <t>50.00%</t>
+  </si>
+  <si>
+    <t>59.26%</t>
+  </si>
+  <si>
+    <t>66.67%</t>
+  </si>
+  <si>
+    <t>33.68%</t>
+  </si>
+  <si>
+    <t>37.21%</t>
+  </si>
+  <si>
+    <t>39.51%</t>
+  </si>
+  <si>
+    <t>42.67%</t>
+  </si>
+  <si>
+    <t>45.71%</t>
+  </si>
+  <si>
+    <t>58.18%</t>
+  </si>
+  <si>
+    <t>65.31%</t>
+  </si>
+  <si>
+    <t>78.05%</t>
+  </si>
+  <si>
+    <t>98.47%</t>
+  </si>
+  <si>
+    <t>99.08%</t>
+  </si>
+  <si>
+    <t>99.38%</t>
+  </si>
+  <si>
+    <t>99.69%</t>
   </si>
   <si>
     <t>99.84%</t>
-  </si>
-  <si>
-    <t>99.92%</t>
   </si>
 </sst>
 </file>
@@ -543,13 +534,13 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -563,13 +554,13 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -583,13 +574,13 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -600,13 +591,13 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
         <v>40</v>
@@ -620,13 +611,13 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
         <v>41</v>
@@ -643,13 +634,13 @@
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -660,16 +651,16 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -680,16 +671,16 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -700,16 +691,16 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Codes/ML_models/Models/All_Results/RF_Results/Sliding_Window_Model/Lambda_Abstain_Results_Metrics.xlsx
+++ b/Codes/ML_models/Models/All_Results/RF_Results/Sliding_Window_Model/Lambda_Abstain_Results_Metrics.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
   <si>
     <t>Lambda Threshold</t>
   </si>
@@ -34,34 +34,46 @@
     <t>Specificity</t>
   </si>
   <si>
-    <t>91.27%</t>
-  </si>
-  <si>
     <t>92.43%</t>
   </si>
   <si>
-    <t>93.08%</t>
-  </si>
-  <si>
-    <t>93.87%</t>
-  </si>
-  <si>
-    <t>94.55%</t>
-  </si>
-  <si>
-    <t>96.63%</t>
-  </si>
-  <si>
-    <t>97.49%</t>
-  </si>
-  <si>
-    <t>98.21%</t>
-  </si>
-  <si>
-    <t>98.65%</t>
-  </si>
-  <si>
-    <t>61.54%</t>
+    <t>92.84%</t>
+  </si>
+  <si>
+    <t>93.26%</t>
+  </si>
+  <si>
+    <t>94.97%</t>
+  </si>
+  <si>
+    <t>96.51%</t>
+  </si>
+  <si>
+    <t>98.57%</t>
+  </si>
+  <si>
+    <t>99.05%</t>
+  </si>
+  <si>
+    <t>100.00%</t>
+  </si>
+  <si>
+    <t>76.19%</t>
+  </si>
+  <si>
+    <t>84.21%</t>
+  </si>
+  <si>
+    <t>94.12%</t>
+  </si>
+  <si>
+    <t>35.56%</t>
+  </si>
+  <si>
+    <t>42.11%</t>
+  </si>
+  <si>
+    <t>51.61%</t>
   </si>
   <si>
     <t>72.73%</t>
@@ -70,76 +82,28 @@
     <t>80.00%</t>
   </si>
   <si>
+    <t>48.48%</t>
+  </si>
+  <si>
+    <t>50.00%</t>
+  </si>
+  <si>
+    <t>59.26%</t>
+  </si>
+  <si>
+    <t>68.09%</t>
+  </si>
+  <si>
     <t>88.89%</t>
   </si>
   <si>
-    <t>94.12%</t>
-  </si>
-  <si>
-    <t>23.19%</t>
-  </si>
-  <si>
-    <t>25.00%</t>
-  </si>
-  <si>
-    <t>26.23%</t>
-  </si>
-  <si>
-    <t>28.07%</t>
-  </si>
-  <si>
-    <t>30.19%</t>
-  </si>
-  <si>
-    <t>42.11%</t>
-  </si>
-  <si>
-    <t>50.00%</t>
-  </si>
-  <si>
-    <t>59.26%</t>
-  </si>
-  <si>
-    <t>66.67%</t>
-  </si>
-  <si>
-    <t>33.68%</t>
-  </si>
-  <si>
-    <t>37.21%</t>
-  </si>
-  <si>
-    <t>39.51%</t>
-  </si>
-  <si>
-    <t>42.67%</t>
-  </si>
-  <si>
-    <t>45.71%</t>
-  </si>
-  <si>
-    <t>58.18%</t>
-  </si>
-  <si>
-    <t>65.31%</t>
-  </si>
-  <si>
-    <t>78.05%</t>
-  </si>
-  <si>
-    <t>98.47%</t>
-  </si>
-  <si>
-    <t>99.08%</t>
-  </si>
-  <si>
-    <t>99.38%</t>
-  </si>
-  <si>
-    <t>99.69%</t>
-  </si>
-  <si>
-    <t>99.84%</t>
+    <t>98.76%</t>
+  </si>
+  <si>
+    <t>99.25%</t>
+  </si>
+  <si>
+    <t>99.75%</t>
   </si>
 </sst>
 </file>
@@ -531,16 +495,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -551,16 +515,16 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -571,16 +535,16 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -591,16 +555,16 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -611,16 +575,16 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -631,16 +595,16 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -651,16 +615,16 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
         <v>26</v>
       </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -671,16 +635,16 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -688,19 +652,19 @@
         <v>0.9</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Codes/ML_models/Models/All_Results/RF_Results/Sliding_Window_Model/Lambda_Abstain_Results_Metrics.xlsx
+++ b/Codes/ML_models/Models/All_Results/RF_Results/Sliding_Window_Model/Lambda_Abstain_Results_Metrics.xlsx
@@ -34,76 +34,76 @@
     <t>Specificity</t>
   </si>
   <si>
-    <t>92.43%</t>
-  </si>
-  <si>
-    <t>92.84%</t>
-  </si>
-  <si>
-    <t>93.26%</t>
-  </si>
-  <si>
-    <t>94.97%</t>
-  </si>
-  <si>
-    <t>96.51%</t>
-  </si>
-  <si>
-    <t>98.57%</t>
-  </si>
-  <si>
-    <t>99.05%</t>
+    <t>94.69%</t>
+  </si>
+  <si>
+    <t>95.39%</t>
+  </si>
+  <si>
+    <t>96.28%</t>
+  </si>
+  <si>
+    <t>97.55%</t>
+  </si>
+  <si>
+    <t>98.48%</t>
+  </si>
+  <si>
+    <t>99.42%</t>
+  </si>
+  <si>
+    <t>99.81%</t>
   </si>
   <si>
     <t>100.00%</t>
   </si>
   <si>
-    <t>76.19%</t>
-  </si>
-  <si>
-    <t>84.21%</t>
-  </si>
-  <si>
-    <t>94.12%</t>
-  </si>
-  <si>
-    <t>35.56%</t>
-  </si>
-  <si>
-    <t>42.11%</t>
-  </si>
-  <si>
-    <t>51.61%</t>
-  </si>
-  <si>
-    <t>72.73%</t>
-  </si>
-  <si>
-    <t>80.00%</t>
-  </si>
-  <si>
-    <t>48.48%</t>
-  </si>
-  <si>
-    <t>50.00%</t>
-  </si>
-  <si>
-    <t>59.26%</t>
-  </si>
-  <si>
-    <t>68.09%</t>
-  </si>
-  <si>
-    <t>88.89%</t>
-  </si>
-  <si>
-    <t>98.76%</t>
-  </si>
-  <si>
-    <t>99.25%</t>
-  </si>
-  <si>
-    <t>99.75%</t>
+    <t>83.33%</t>
+  </si>
+  <si>
+    <t>93.75%</t>
+  </si>
+  <si>
+    <t>36.59%</t>
+  </si>
+  <si>
+    <t>38.46%</t>
+  </si>
+  <si>
+    <t>44.12%</t>
+  </si>
+  <si>
+    <t>53.57%</t>
+  </si>
+  <si>
+    <t>65.22%</t>
+  </si>
+  <si>
+    <t>50.85%</t>
+  </si>
+  <si>
+    <t>54.55%</t>
+  </si>
+  <si>
+    <t>60.00%</t>
+  </si>
+  <si>
+    <t>69.77%</t>
+  </si>
+  <si>
+    <t>78.95%</t>
+  </si>
+  <si>
+    <t>90.91%</t>
+  </si>
+  <si>
+    <t>96.77%</t>
+  </si>
+  <si>
+    <t>99.41%</t>
+  </si>
+  <si>
+    <t>99.80%</t>
   </si>
 </sst>
 </file>
@@ -498,13 +498,13 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -521,10 +521,10 @@
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -532,16 +532,16 @@
         <v>0.6</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -552,19 +552,19 @@
         <v>0.65</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -572,7 +572,7 @@
         <v>0.7</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -581,7 +581,7 @@
         <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
@@ -592,7 +592,7 @@
         <v>0.75</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -601,7 +601,7 @@
         <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
@@ -612,13 +612,13 @@
         <v>0.8</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
         <v>26</v>
@@ -632,16 +632,16 @@
         <v>0.85</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>

--- a/Codes/ML_models/Models/All_Results/RF_Results/Sliding_Window_Model/Lambda_Abstain_Results_Metrics.xlsx
+++ b/Codes/ML_models/Models/All_Results/RF_Results/Sliding_Window_Model/Lambda_Abstain_Results_Metrics.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>Lambda Threshold</t>
   </si>
@@ -34,76 +34,97 @@
     <t>Specificity</t>
   </si>
   <si>
-    <t>94.69%</t>
-  </si>
-  <si>
-    <t>95.39%</t>
-  </si>
-  <si>
-    <t>96.28%</t>
-  </si>
-  <si>
-    <t>97.55%</t>
-  </si>
-  <si>
-    <t>98.48%</t>
-  </si>
-  <si>
-    <t>99.42%</t>
+    <t>94.97%</t>
+  </si>
+  <si>
+    <t>95.08%</t>
+  </si>
+  <si>
+    <t>95.25%</t>
+  </si>
+  <si>
+    <t>95.65%</t>
+  </si>
+  <si>
+    <t>96.22%</t>
+  </si>
+  <si>
+    <t>96.86%</t>
+  </si>
+  <si>
+    <t>98.47%</t>
+  </si>
+  <si>
+    <t>99.50%</t>
+  </si>
+  <si>
+    <t>100.00%</t>
+  </si>
+  <si>
+    <t>95.24%</t>
+  </si>
+  <si>
+    <t>96.77%</t>
+  </si>
+  <si>
+    <t>98.36%</t>
+  </si>
+  <si>
+    <t>42.25%</t>
+  </si>
+  <si>
+    <t>42.55%</t>
+  </si>
+  <si>
+    <t>43.17%</t>
+  </si>
+  <si>
+    <t>45.45%</t>
+  </si>
+  <si>
+    <t>49.18%</t>
+  </si>
+  <si>
+    <t>54.05%</t>
+  </si>
+  <si>
+    <t>71.43%</t>
+  </si>
+  <si>
+    <t>89.55%</t>
+  </si>
+  <si>
+    <t>58.54%</t>
+  </si>
+  <si>
+    <t>59.11%</t>
+  </si>
+  <si>
+    <t>60.00%</t>
+  </si>
+  <si>
+    <t>62.18%</t>
+  </si>
+  <si>
+    <t>65.57%</t>
+  </si>
+  <si>
+    <t>69.77%</t>
+  </si>
+  <si>
+    <t>82.76%</t>
+  </si>
+  <si>
+    <t>93.75%</t>
   </si>
   <si>
     <t>99.81%</t>
   </si>
   <si>
-    <t>100.00%</t>
-  </si>
-  <si>
-    <t>83.33%</t>
-  </si>
-  <si>
-    <t>93.75%</t>
-  </si>
-  <si>
-    <t>36.59%</t>
-  </si>
-  <si>
-    <t>38.46%</t>
-  </si>
-  <si>
-    <t>44.12%</t>
-  </si>
-  <si>
-    <t>53.57%</t>
-  </si>
-  <si>
-    <t>65.22%</t>
-  </si>
-  <si>
-    <t>50.85%</t>
-  </si>
-  <si>
-    <t>54.55%</t>
-  </si>
-  <si>
-    <t>60.00%</t>
-  </si>
-  <si>
-    <t>69.77%</t>
-  </si>
-  <si>
-    <t>78.95%</t>
-  </si>
-  <si>
-    <t>90.91%</t>
-  </si>
-  <si>
-    <t>96.77%</t>
-  </si>
-  <si>
-    <t>99.41%</t>
-  </si>
-  <si>
-    <t>99.80%</t>
+    <t>99.87%</t>
+  </si>
+  <si>
+    <t>99.94%</t>
   </si>
 </sst>
 </file>
@@ -495,16 +516,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -515,16 +536,16 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -532,19 +553,19 @@
         <v>0.6</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -552,19 +573,19 @@
         <v>0.65</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -572,19 +593,19 @@
         <v>0.7</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -592,19 +613,19 @@
         <v>0.75</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -612,19 +633,19 @@
         <v>0.8</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -632,19 +653,19 @@
         <v>0.85</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -652,19 +673,19 @@
         <v>0.9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Codes/ML_models/Models/All_Results/RF_Results/Sliding_Window_Model/Lambda_Abstain_Results_Metrics.xlsx
+++ b/Codes/ML_models/Models/All_Results/RF_Results/Sliding_Window_Model/Lambda_Abstain_Results_Metrics.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>Lambda Threshold</t>
   </si>
@@ -34,97 +34,136 @@
     <t>Specificity</t>
   </si>
   <si>
-    <t>94.97%</t>
-  </si>
-  <si>
-    <t>95.08%</t>
-  </si>
-  <si>
-    <t>95.25%</t>
-  </si>
-  <si>
-    <t>95.65%</t>
-  </si>
-  <si>
-    <t>96.22%</t>
-  </si>
-  <si>
-    <t>96.86%</t>
-  </si>
-  <si>
-    <t>98.47%</t>
-  </si>
-  <si>
-    <t>99.50%</t>
+    <t>95.70%</t>
+  </si>
+  <si>
+    <t>96.28%</t>
+  </si>
+  <si>
+    <t>96.97%</t>
+  </si>
+  <si>
+    <t>97.47%</t>
+  </si>
+  <si>
+    <t>98.05%</t>
+  </si>
+  <si>
+    <t>98.59%</t>
+  </si>
+  <si>
+    <t>99.06%</t>
+  </si>
+  <si>
+    <t>99.49%</t>
+  </si>
+  <si>
+    <t>99.74%</t>
+  </si>
+  <si>
+    <t>76.75%</t>
+  </si>
+  <si>
+    <t>82.73%</t>
+  </si>
+  <si>
+    <t>88.69%</t>
+  </si>
+  <si>
+    <t>92.00%</t>
+  </si>
+  <si>
+    <t>95.97%</t>
+  </si>
+  <si>
+    <t>97.73%</t>
+  </si>
+  <si>
+    <t>99.00%</t>
+  </si>
+  <si>
+    <t>99.57%</t>
   </si>
   <si>
     <t>100.00%</t>
   </si>
   <si>
-    <t>95.24%</t>
-  </si>
-  <si>
-    <t>96.77%</t>
-  </si>
-  <si>
-    <t>98.36%</t>
-  </si>
-  <si>
-    <t>42.25%</t>
-  </si>
-  <si>
-    <t>42.55%</t>
-  </si>
-  <si>
-    <t>43.17%</t>
-  </si>
-  <si>
-    <t>45.45%</t>
-  </si>
-  <si>
-    <t>49.18%</t>
-  </si>
-  <si>
-    <t>54.05%</t>
-  </si>
-  <si>
-    <t>71.43%</t>
-  </si>
-  <si>
-    <t>89.55%</t>
-  </si>
-  <si>
-    <t>58.54%</t>
-  </si>
-  <si>
-    <t>59.11%</t>
-  </si>
-  <si>
-    <t>60.00%</t>
-  </si>
-  <si>
-    <t>62.18%</t>
-  </si>
-  <si>
-    <t>65.57%</t>
-  </si>
-  <si>
-    <t>69.77%</t>
-  </si>
-  <si>
-    <t>82.76%</t>
-  </si>
-  <si>
-    <t>93.75%</t>
-  </si>
-  <si>
-    <t>99.81%</t>
-  </si>
-  <si>
-    <t>99.87%</t>
-  </si>
-  <si>
-    <t>99.94%</t>
+    <t>37.16%</t>
+  </si>
+  <si>
+    <t>39.86%</t>
+  </si>
+  <si>
+    <t>44.23%</t>
+  </si>
+  <si>
+    <t>48.42%</t>
+  </si>
+  <si>
+    <t>54.37%</t>
+  </si>
+  <si>
+    <t>62.05%</t>
+  </si>
+  <si>
+    <t>70.77%</t>
+  </si>
+  <si>
+    <t>81.66%</t>
+  </si>
+  <si>
+    <t>89.61%</t>
+  </si>
+  <si>
+    <t>50.07%</t>
+  </si>
+  <si>
+    <t>53.80%</t>
+  </si>
+  <si>
+    <t>59.02%</t>
+  </si>
+  <si>
+    <t>63.45%</t>
+  </si>
+  <si>
+    <t>69.42%</t>
+  </si>
+  <si>
+    <t>75.91%</t>
+  </si>
+  <si>
+    <t>82.54%</t>
+  </si>
+  <si>
+    <t>89.73%</t>
+  </si>
+  <si>
+    <t>94.52%</t>
+  </si>
+  <si>
+    <t>99.31%</t>
+  </si>
+  <si>
+    <t>99.52%</t>
+  </si>
+  <si>
+    <t>99.71%</t>
+  </si>
+  <si>
+    <t>99.80%</t>
+  </si>
+  <si>
+    <t>99.90%</t>
+  </si>
+  <si>
+    <t>99.95%</t>
+  </si>
+  <si>
+    <t>99.98%</t>
+  </si>
+  <si>
+    <t>99.99%</t>
   </si>
 </sst>
 </file>
@@ -519,13 +558,13 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -539,13 +578,13 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -559,13 +598,13 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -576,16 +615,16 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -596,16 +635,16 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -616,16 +655,16 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -636,16 +675,16 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -656,16 +695,16 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -676,16 +715,16 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
